--- a/biology/Botanique/Araucaria/Araucaria.xlsx
+++ b/biology/Botanique/Araucaria/Araucaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Araucaria est l'un des trois genres de végétaux de la famille des Araucariacées. Le genre doit son nom à la région d'Araucanie (Arauco) au Chili dont sont originaires deux espèces du genre. Des restes fossilisés indiquent qu'au Mésozoïque ils étaient déjà abondants dans l'hémisphère sud[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Araucaria est l'un des trois genres de végétaux de la famille des Araucariacées. Le genre doit son nom à la région d'Araucanie (Arauco) au Chili dont sont originaires deux espèces du genre. Des restes fossilisés indiquent qu'au Mésozoïque ils étaient déjà abondants dans l'hémisphère sud.
 Ce sont des conifères aux feuilles en aiguilles ou en écailles triangulaires leur donnant un aspect tout à fait particulier.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Distribution géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est au Mésozoïque où le supercontinent Gondwana était encore lié que le genre Araucaria a atteint son maximum d'expansion, dans une zone comprise entre le 20e degré de latitude nord et le 60e degré de latitude sud ; les fossiles découverts en Inde, en Afrique, en Amérique, et en Australie en témoignent[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est au Mésozoïque où le supercontinent Gondwana était encore lié que le genre Araucaria a atteint son maximum d'expansion, dans une zone comprise entre le 20e degré de latitude nord et le 60e degré de latitude sud ; les fossiles découverts en Inde, en Afrique, en Amérique, et en Australie en témoignent.
 L'aire de répartition des représentants actuels, beaucoup plus restreinte, se confine aux régions suivantes :
 la Nouvelle-Guinée et l'Australie avec deux espèces chacune, l'une d'elles, Araucaria cunninghamii, étant commune aux deux régions,
 l'île de Norfolk, avec une espèce communément appelée pin de Norfolk,
@@ -552,13 +566,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Section Araucaria
-Araucaria angustifolia. Sud-Est du Brésil (Parana), Paraguay, Nord-Est argentin.
+          <t>Section Araucaria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Araucaria angustifolia. Sud-Est du Brésil (Parana), Paraguay, Nord-Est argentin.
 Araucaria araucana. Chili central &amp; Argentine occidentale
 Araucaria bidwillii. -- Bunya-bunya Australie orientale
-Araucaria hunsteinii. Klinki. Nouvelle-Guinée
-Section Eutacta
-Araucaria bernieri. Nouvelle-Calédonie
+Araucaria hunsteinii. Klinki. Nouvelle-Guinée</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Araucaria</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucaria</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Section Eutacta</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Araucaria bernieri. Nouvelle-Calédonie
 Araucaria biramulata. Nouvelle-Calédonie
 Araucaria columnaris. Nouvelle-Calédonie -- Pin colonnaire
 Araucaria cunninghamii. Moreton Bay Pine, Hoop Pine. Australie orientale, Nouvelle-Guinée.
@@ -577,39 +630,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Araucaria</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Araucaria</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>En Nouvelle-Calédonie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une grande partie des espèces du genre sont endémiques de Nouvelle-Calédonie. Sur cette île les Araucarias ont une répartition qui comprend les zones côtières, les zones de basse et de moyenne altitude et certains sommets au-dessus de 1 000 m.
-Ce sont des espèces grégaires qui, cependant, ne forment jamais de massifs forestiers denses. Bien au contraire, elles fuient les espèces environnantes plus compétitives[2], en colonisant en populations clairsemées les pentes escarpées et ensoleillées des thalwegs et les crêtes sommitales. Une partie des espèces sur cette île sont adaptées aux sols ultramafiques qui sont très présents sur l'île.
-Les Araucarias de Nouvelle-Calédonie sont plus apparentés entre eux qu'avec les autres membres du genre présents en dehors de Nouvelle-Calédonie, ce qui indique une radiation évolutive sur cette île à partir d'un seul ancêtre commun qui s'est produite après que cet ancêtre s'est retrouvé isolé sur l'île et séparé des autres membres du genre.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -631,10 +651,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>En Nouvelle-Calédonie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une grande partie des espèces du genre sont endémiques de Nouvelle-Calédonie. Sur cette île les Araucarias ont une répartition qui comprend les zones côtières, les zones de basse et de moyenne altitude et certains sommets au-dessus de 1 000 m.
+Ce sont des espèces grégaires qui, cependant, ne forment jamais de massifs forestiers denses. Bien au contraire, elles fuient les espèces environnantes plus compétitives, en colonisant en populations clairsemées les pentes escarpées et ensoleillées des thalwegs et les crêtes sommitales. Une partie des espèces sur cette île sont adaptées aux sols ultramafiques qui sont très présents sur l'île.
+Les Araucarias de Nouvelle-Calédonie sont plus apparentés entre eux qu'avec les autres membres du genre présents en dehors de Nouvelle-Calédonie, ce qui indique une radiation évolutive sur cette île à partir d'un seul ancêtre commun qui s'est produite après que cet ancêtre s'est retrouvé isolé sur l'île et séparé des autres membres du genre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Araucaria</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Araucaria</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Horticulture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs espèces sont cultivées comme arbres ornementaux. L'araucaria du Chili ou « désespoir des singes » (Araucaria araucana) est le plus rustique sous climat tempéré et le plus courant en Europe. L'araucaria de Norfolk (Araucaria heterophylla, aussi appelé pin de Norfolk) et l'araucaria colonnaire (Araucaria columnaris) sont fréquemment plantés dans les régions côtières chaudes du monde et les régions tempérées à hivers très doux.
 </t>
